--- a/python/two/night Error t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night Error t1=6 t2=3 δ=0.95.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4.73</v>
       </c>
       <c r="D2" t="n">
-        <v>8.68e-06</v>
+        <v>-21.1</v>
       </c>
       <c r="E2" t="n">
-        <v>6.07</v>
+        <v>5.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1.16</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>5.55</v>
+        <v>5.98</v>
       </c>
       <c r="D3" t="n">
-        <v>85.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>-66.7</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>1.88e-06</v>
+        <v>0.446</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001</v>
+        <v>0.000102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.418</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.906</v>
+        <v>0.000393</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.67</v>
+        <v>-100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="F5" t="n">
-        <v>-27.5</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.11e-14</v>
+        <v>-0.000638</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.11e-14</v>
+        <v>-0.000445</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.3e-08</v>
+        <v>166000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>74400</v>
+        <v>196000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.18e-10</v>
+        <v>853</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>381</v>
+        <v>1010</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
